--- a/.venv/comparison_result.xlsx
+++ b/.venv/comparison_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>추가된 내용</t>
+          <t>변경된 부분만 표시</t>
         </is>
       </c>
     </row>
@@ -462,12 +462,31 @@
         <is>
           <t>3.1.3 REMOTE VALVE CONTROL SYSTEM 
 Remote valve for cargo valve to be operated remotely and manually by portable hand 
-pump. The additional hand pump to be supplied by Buyer.</t>
+pump.  꿀꿀 멍멍 !</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The additional hand pump to be supplied by Buyer.</t>
+          <t>**꿀꿀** **멍멍** **!**</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3.1.4 WATER BALLAST SYSTEM 
+The ballast pump to be operated in accordance with IMO.3.4.5.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3.1.4 WATER BALLAST SYSTEM 
+The ballast pump to be operated in accordance with IMO.3.4.5. 꺵깽아 지랄 말라</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>**꺵깽아** **지랄** **말라**</t>
         </is>
       </c>
     </row>
